--- a/site/downloads/UNICAMP _ Pré-Requisito_ Áreas de Atuaçã.xlsx
+++ b/site/downloads/UNICAMP _ Pré-Requisito_ Áreas de Atuaçã.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36,50</t>
+          <t>37,00</t>
         </is>
       </c>
     </row>
